--- a/Daisy-xls/ResearchPages/Spanish/_ContentIDs.xlsx
+++ b/Daisy-xls/ResearchPages/Spanish/_ContentIDs.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="14625"/>
   </bookViews>
   <sheets>
-    <sheet name="fieldUsage-2" sheetId="1" r:id="rId1"/>
+    <sheet name="Spanish Content IDs" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1979,7 +1979,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
